--- a/attendanceupdated.xlsx
+++ b/attendanceupdated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kidsp\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CA8660-BA4B-4994-BAE8-CC4DA3353ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13C69BC-54CD-42A6-85E6-F32FCAF6CAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="3310" windowWidth="18000" windowHeight="11170" xr2:uid="{E2D9BC6B-1C48-433C-81CB-8CED3872BB82}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="6">
   <si>
     <t>Meeting Times</t>
   </si>
@@ -409,7 +409,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -524,10 +524,28 @@
       <c r="A9" s="1">
         <v>45260</v>
       </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45261</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
